--- a/数据挖掘实战-英文数据 词频词云 情感分析/facebook/含有sanxingdui_评论统计.xlsx
+++ b/数据挖掘实战-英文数据 词频词云 情感分析/facebook/含有sanxingdui_评论统计.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V1"/>
+  <dimension ref="A1:W15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,37 +511,1368 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>clearn_text</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>scores</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>compound</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Negtive</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Postive</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Neutral</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>sentiment_class</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ZmVlZGJhY2s6NDAxNDQ5MjU1NzM4MDgx</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Miracles of Chinese Clay! How to Turn Mud into Artworks that Remain Unchanged for Centuries? 
+In this episode of "Inspiration," Xu Xiaoyong, the seventh-generation inheritor of the Xus Clay Colored Sculpture, encounters the mysterious Sanxingdui culture. He challenges himself to "restore" Sanxingdui through his hands. In 18 minutes, join us for an immersive journey as Xu Xiaoyong transforms a piece of yellow clay into the "Golden Sanxingdui" through steps like material selection, frame building, design, and painting!</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2024-02-02 18:55:58</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/permalink.php?story_fbid=pfbid02tZ3wisooJhsCwaJYWwj2RqYxhzteQsdKbYz98NqgyjTWz9ChiR5awfoBn8GVznwkl&amp;id=100076190284448</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>6</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>center.sichuan</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2024-02-04 02:21:36</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Y29tbWVudDo0MDE0NDkyNTU3MzgwODFfMTEwNDQwMzM5MzkyMjMxNQ==</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>100013359365900</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Van Tat</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>What beautiful Artworks! So talented.</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>center.sichuan</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>beautiful artwork talented</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>{'neg': 0.0, 'neu': 0.122, 'pos': 0.878, 'compound': 0.802}</t>
+        </is>
+      </c>
+      <c r="S2" t="n">
+        <v>0.802</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.878</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.122</v>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ZmVlZGJhY2s6MzUxNTY4OTk0MDU5NDQx</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">When you first learned about the #Sanxingdui site, how did you feel?
+Watch episode 62 of 𝐈𝐧𝐬𝐩𝐢𝐫𝐚𝐭𝐢𝐨𝐧, and explore these remarkable cultural #relics that have journeyed to the Sanxingdui site! #History #culture #Sichuan 
+</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2023-11-04 21:15:03</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://l.facebook.com/l.php?u=https%3A%2F%2Fyoutu.be%2FAWV3is2GxaY&amp;h=AT1CTdbuElcilVdtfMwjNYNRHScgqbzCLhGY3ZiB8pBjnwlB1eymaoumsLvd5SfQ5r6lG9pS8oB74ASQrlNuELyowHayTLsCBBPjFIggLOtiWDKM74u9SOg4eiTX4hA9oXX6&amp;s=1</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>center.sichuan</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2023-11-06 10:08:13</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Y29tbWVudDozNTE1Njg5OTQwNTk0NDFfOTExNDM3MDk3MDEwODA0</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>100076190284448</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Center.Culture</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Correction: video link at https://youtu.be/AWV3is2GxaY</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>center.sichuan</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>correction video link</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>{'neg': 0.0, 'neu': 1.0, 'pos': 0.0, 'compound': 0.0}</t>
+        </is>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ZmVlZGJhY2s6Mjk4NTc4NDQ2MDI1MTYz</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Can you believe that one important Sanxingdui cultural relic has been disassembled? How Come? Check our new vlog and see what happened to it!
+#culturalrelic #Sanxingdui #Sichuan #mysterious #China</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2023-07-29 14:59:03</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/permalink.php?story_fbid=pfbid0AD8pgWE9ZWLdssi5ArQTVfyk9QxvrbiGD8QQMyS88eC7YoH4n7eU53BugFmvkHxJl&amp;id=100076190284448</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>22</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4</v>
+      </c>
+      <c r="G4" t="n">
+        <v>21</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>center.sichuan</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2023-07-30 09:14:43</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Y29tbWVudDoyOTg1Nzg0NDYwMjUxNjNfMTkzMDE2MTE0NzM1ODU2OQ==</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>100092691513209</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Li Doris</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>unbelievable</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>center.sichuan</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>unbelievable</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>{'neg': 0.0, 'neu': 0.0, 'pos': 1.0, 'compound': 0.2023}</t>
+        </is>
+      </c>
+      <c r="S4" t="n">
+        <v>0.2023</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ZmVlZGJhY2s6Mjk4NTc4NDQ2MDI1MTYz</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Can you believe that one important Sanxingdui cultural relic has been disassembled? How Come? Check our new vlog and see what happened to it!
+#culturalrelic #Sanxingdui #Sichuan #mysterious #China</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2023-07-29 14:59:03</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/permalink.php?story_fbid=pfbid0AD8pgWE9ZWLdssi5ArQTVfyk9QxvrbiGD8QQMyS88eC7YoH4n7eU53BugFmvkHxJl&amp;id=100076190284448</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>22</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G5" t="n">
+        <v>21</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>center.sichuan</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2023-07-30 00:52:38</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Y29tbWVudDoyOTg1Nzg0NDYwMjUxNjNfMjM5MjcyMTIyMzQ4NzYx</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>100086789198488</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>海月明</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>The Sanxingdui of ancient Shu culture, with shining stars at the Universiade.
+#Sichuan＃Chengdu Universiade#Dazhou</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>center.sichuan</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>sanxingdui ancient shu culture shining star universiade universiade</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>{'neg': 0.0, 'neu': 1.0, 'pos': 0.0, 'compound': 0.0}</t>
+        </is>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1</v>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ZmVlZGJhY2s6MjE4NTE1OTY3MzY0NzQ1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>You should definitely visit the #Sanxingdui Ruins in #Sichuan Province and witness the ancient Shu civilization. It is considered one of humankind's greatest archaeological finds in the 20th century. 
+#TwinCityParallels #BeautifulChina #SichuanNewEra #TwoSessions2023 #SichuanSC iChongqing</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2023-03-07 14:45:07</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/permalink.php?story_fbid=pfbid02BMKHC6hQim1joDXCP8J1Gj2fFhD5ejMWvkSMkuUhwRSNsbhyeNYdmbmjC4MtUSDhl&amp;id=100076190284448</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>14</v>
+      </c>
+      <c r="F6" t="n">
+        <v>6</v>
+      </c>
+      <c r="G6" t="n">
+        <v>14</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>center.sichuan</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2023-03-08 21:26:06</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Y29tbWVudDoyMTg1MTU5NjczNjQ3NDVfMTEzOTY3MTc1NjY5OTA5OQ==</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>100090857528672</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>楊俊逸</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Very nice 👍</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>center.sichuan</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>nice</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>{'neg': 0.0, 'neu': 0.0, 'pos': 1.0, 'compound': 0.4215}</t>
+        </is>
+      </c>
+      <c r="S6" t="n">
+        <v>0.4215</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ZmVlZGJhY2s6MjE4NTE1OTY3MzY0NzQ1</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>You should definitely visit the #Sanxingdui Ruins in #Sichuan Province and witness the ancient Shu civilization. It is considered one of humankind's greatest archaeological finds in the 20th century. 
+#TwinCityParallels #BeautifulChina #SichuanNewEra #TwoSessions2023 #SichuanSC iChongqing</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2023-03-07 14:45:07</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/permalink.php?story_fbid=pfbid02BMKHC6hQim1joDXCP8J1Gj2fFhD5ejMWvkSMkuUhwRSNsbhyeNYdmbmjC4MtUSDhl&amp;id=100076190284448</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>14</v>
+      </c>
+      <c r="F7" t="n">
+        <v>6</v>
+      </c>
+      <c r="G7" t="n">
+        <v>14</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>center.sichuan</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2023-03-07 16:36:09</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Y29tbWVudDoyMTg1MTU5NjczNjQ3NDVfNjAzNzgwODE0NTEzMTM2</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>100090631665078</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>郭闷雷</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Sanxingdui</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>center.sichuan</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>sanxingdui</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>{'neg': 0.0, 'neu': 1.0, 'pos': 0.0, 'compound': 0.0}</t>
+        </is>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1</v>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ZmVlZGJhY2s6MTcwNjc3MTc1MzYxMzU2</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>The third part of the line drawing of the Sanxingdui relics is here! Come on, use your brushes to colour the Sanxingdui relics. Welcome to send your works to us by private message or directly on your own twitter and @ @SanxingduiC, add the tag #ColourForSanxingdui</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2022-06-06 17:18:27</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/permalink.php?story_fbid=pfbid0eCeqTN7khrKHyF2bCTLuFah6cij3FwYrD66UKcvVQZcScannCxCx79YK1ah4fAkel&amp;id=101641788931562</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>center.sichuan</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2022-06-06 17:19:00</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Y29tbWVudDoxNzA2NzcxNzUzNjEzNTZfNzU2MzAyNDg4ODgxNjE0</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>8.Bronze Kneeling Human Figure 
+The human figure of the Bronze Kneeling Human Figure might be a prayer in a sacrificial ceremony. The figure kneels sideways. This could be the position at a formal occasion in ancient Shu. Its eyebrows, eye sockets, eyeballs and the both sideburns are painted black. This may suggest something of witchcraft.</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>center.sichuan</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>bronze kneeling human figure human figure bronze kneeling human figure prayer sacrificial ceremony figure kneel sideways position formal occasion ancient shu eyebrow eye socket eyeball sideburn painted black witchcraft</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>{'neg': 0.0, 'neu': 1.0, 'pos': 0.0, 'compound': 0.0}</t>
+        </is>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1</v>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ZmVlZGJhY2s6MTcwNjc3MTc1MzYxMzU2</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>The third part of the line drawing of the Sanxingdui relics is here! Come on, use your brushes to colour the Sanxingdui relics. Welcome to send your works to us by private message or directly on your own twitter and @ @SanxingduiC, add the tag #ColourForSanxingdui</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2022-06-06 17:18:27</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/permalink.php?story_fbid=pfbid0eCeqTN7khrKHyF2bCTLuFah6cij3FwYrD66UKcvVQZcScannCxCx79YK1ah4fAkel&amp;id=101641788931562</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>center.sichuan</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2022-06-06 17:18:52</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Y29tbWVudDoxNzA2NzcxNzUzNjEzNTZfNTg2NjgyMjA5NTUwMjQw</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>7.Bronze kneeling statue holding a Zun vessel on head
+The human figure with a bare upper body, a skirt and belt on, kneels on the horn-shaped pedestal. It holds a Zun-shaped vessel on its head. This figurine demonstrates one of Zun’s usage in ancient sacrificial ceremony.</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>center.sichuan</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>bronze kneeling statue holding zun vessel head human figure bare upper body skirt belt kneel horn shaped pedestal hold zun shaped vessel head figurine demonstrates zun usage ancient sacrificial ceremony</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>{'neg': 0.0, 'neu': 1.0, 'pos': 0.0, 'compound': 0.0}</t>
+        </is>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1</v>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ZmVlZGJhY2s6MTY5ODI4MzEyMTEyOTA5</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>The Sceond part of the line drawing of the Sanxingdui relics is here! Come on, use your brushes to colour the Sanxingdui relics. Welcome to send your works to us by private message or directly on your own twitter and @ @SanxingduiC, add the tag #ColourForSanxingdui</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2022-06-02 16:44:16</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/permalink.php?story_fbid=pfbid02nV4qWSf5L4c1j3itnGwaAM19i2J4Ru2aMgJrXFxbGkoRY8VJfVEh6uMCqoYC8aAMl&amp;id=101641788931562</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>center.sichuan</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2022-06-02 16:48:23</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Y29tbWVudDoxNjk4MjgzMTIxMTI5MDlfMTAzOTQyODExMzQ0NjY4OQ==</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>6.Bronze big bird head
+The residents of the ancient Shu worshiped birds greatly. Being the biggest bird-shaped cultural relic among the others in the Sanxingdui site, this Bronze big bird head has 3 holes under the neck for fixation. And cinnabar could still be recognized between the two lips and around the eyes when it was found in the pit.</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>center.sichuan</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>bronze bird head resident ancient shu worshiped bird greatly biggest bird shaped cultural relic sanxingdui site bronze bird head hole neck fixation cinnabar recognized lip eye pit</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>{'neg': 0.0, 'neu': 0.884, 'pos': 0.116, 'compound': 0.5267}</t>
+        </is>
+      </c>
+      <c r="S10" t="n">
+        <v>0.5266999999999999</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.884</v>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ZmVlZGJhY2s6MTY5ODI4MzEyMTEyOTA5</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>The Sceond part of the line drawing of the Sanxingdui relics is here! Come on, use your brushes to colour the Sanxingdui relics. Welcome to send your works to us by private message or directly on your own twitter and @ @SanxingduiC, add the tag #ColourForSanxingdui</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2022-06-02 16:44:16</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/permalink.php?story_fbid=pfbid02nV4qWSf5L4c1j3itnGwaAM19i2J4Ru2aMgJrXFxbGkoRY8VJfVEh6uMCqoYC8aAMl&amp;id=101641788931562</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>center.sichuan</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2022-06-02 16:48:10</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Y29tbWVudDoxNjk4MjgzMTIxMTI5MDlfMzg2NTY2NjMwMTAyMDUx</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>5.Bronze Bird
+The Bronze bird has a long and pointed peak, a pair of rather small wings, and a long tail that falls to the ground. It also has a big crest, and there are scale-like pattern decorated on the feather of its head, neck and front chest and curly cloud-like pattern on the feather of its legs.</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>center.sichuan</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>bronze bird bronze bird peak pair wing tail fall ground crest scale pattern decorated feather head neck front chest curly cloud pattern feather leg</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>{'neg': 0.0, 'neu': 1.0, 'pos': 0.0, 'compound': 0.0}</t>
+        </is>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1</v>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ZmVlZGJhY2s6MTY5NjIzMTE1NDY2NzYy</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>The first part of the line drawing of the Sanxingdui relics is here! Come on, use your brushes to colour the Sanxingdui relics. Welcome to send your works to us by private message or directly on your own twitter and @ @SanxingduiC, add the tag #ColourForSanxingdui</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2022-06-01 17:50:17</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/permalink.php?story_fbid=pfbid023kYWC8b1piZX8azRV8ByM8gLEjYbyNQtjWzEzMrtFBPLLt5xrEntJMvx7WLx3wAMl&amp;id=101641788931562</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>4</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>center.sichuan</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2022-06-01 17:53:37</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Y29tbWVudDoxNjk2MjMxMTU0NjY3NjJfNjg5NDkwNDU4ODA4MzA5</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>4.Bronze Lei Lid
+The Bronze Lei Lid has an uplifted top, and 4 raised posts that separate the periphery into 4 parts. It’s mainly decorated with horned beast-face patterns formed by double-dragon patterns. The top of the lid is embellished with linked-pearl patterns, Yun-lei (cloud &amp; thunder) patterns, vortex patterns from outward to inward.</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>center.sichuan</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>bronze lei lid bronze lei lid uplifted top raised post separate periphery decorated horned beast pattern formed double dragon pattern top lid embellished linked pearl pattern yun lei cloud thunder pattern vortex pattern outward</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>{'neg': 0.0, 'neu': 0.899, 'pos': 0.101, 'compound': 0.3818}</t>
+        </is>
+      </c>
+      <c r="S12" t="n">
+        <v>0.3818</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.101</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.899</v>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ZmVlZGJhY2s6MTY5NjIzMTE1NDY2NzYy</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>The first part of the line drawing of the Sanxingdui relics is here! Come on, use your brushes to colour the Sanxingdui relics. Welcome to send your works to us by private message or directly on your own twitter and @ @SanxingduiC, add the tag #ColourForSanxingdui</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2022-06-01 17:50:17</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/permalink.php?story_fbid=pfbid023kYWC8b1piZX8azRV8ByM8gLEjYbyNQtjWzEzMrtFBPLLt5xrEntJMvx7WLx3wAMl&amp;id=101641788931562</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>4</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>center.sichuan</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2022-06-01 17:53:25</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Y29tbWVudDoxNjk2MjMxMTU0NjY3NjJfNTE5NjE5MzU2NTczOTE5</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>3.Bronze Cock 
+The Bronze cock with fully-fledged feathers on its tail excavated in the No.2 Pit of Sanxingdui site stands out among the rest exaggerated and surrealistic cultural relics in terms of its meticulous carvings which represent the residents of the ancient Shu’s incredible ability of portraying.</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>center.sichuan</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>bronze cock bronze cock fledged feather tail excavated pit sanxingdui site stand rest exaggerated surrealistic cultural relic term meticulous carving represent resident ancient shu incredible ability portraying</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>{'neg': 0.154, 'neu': 0.769, 'pos': 0.077, 'compound': -0.0772}</t>
+        </is>
+      </c>
+      <c r="S13" t="n">
+        <v>-0.0772</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.769</v>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ZmVlZGJhY2s6MTY5NjIzMTE1NDY2NzYy</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>The first part of the line drawing of the Sanxingdui relics is here! Come on, use your brushes to colour the Sanxingdui relics. Welcome to send your works to us by private message or directly on your own twitter and @ @SanxingduiC, add the tag #ColourForSanxingdui</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2022-06-01 17:50:17</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/permalink.php?story_fbid=pfbid023kYWC8b1piZX8azRV8ByM8gLEjYbyNQtjWzEzMrtFBPLLt5xrEntJMvx7WLx3wAMl&amp;id=101641788931562</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>4</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>center.sichuan</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2022-06-01 17:53:14</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Y29tbWVudDoxNjk2MjMxMTU0NjY3NjJfMTE4Nzk3ODE1MTk3OTI4NQ==</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>2.Bronze mask with protruding eyes and coronet
+The bronze mask has a pair of protruding eyes reaching out for about 10 cm, and a Kui dragon-shaped forehead ornament 70 cm high on its head. The dark green colour on its eyes and eyebrows and the red color on its lips can still be recognized when it was just excavated.</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>center.sichuan</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>bronze mask protruding eye coronet bronze mask pair protruding eye reaching cm kui dragon shaped forehead ornament cm head dark green colour eye eyebrow red color lip recognized excavated</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>{'neg': 0.0, 'neu': 0.94, 'pos': 0.06, 'compound': 0.2023}</t>
+        </is>
+      </c>
+      <c r="S14" t="n">
+        <v>0.2023</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ZmVlZGJhY2s6MTY5NjIzMTE1NDY2NzYy</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>The first part of the line drawing of the Sanxingdui relics is here! Come on, use your brushes to colour the Sanxingdui relics. Welcome to send your works to us by private message or directly on your own twitter and @ @SanxingduiC, add the tag #ColourForSanxingdui</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2022-06-01 17:50:17</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/permalink.php?story_fbid=pfbid023kYWC8b1piZX8azRV8ByM8gLEjYbyNQtjWzEzMrtFBPLLt5xrEntJMvx7WLx3wAMl&amp;id=101641788931562</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>4</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>center.sichuan</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2022-06-01 17:53:05</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Y29tbWVudDoxNjk2MjMxMTU0NjY3NjJfMTA4ODc1MzgwMTczOTUxOQ==</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>1.Bronze sacred tree
+The 3.96 meters high Bronze sacred tree is listed as the largest single bronze cultural relic found in China today. The branches feature small rings with hollow pattern and buds on which bronze birds stand. The residents of the ancient Shu regarded the sacred tree as an intermediary between heaven and earth, man and god.</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>center.sichuan</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>bronze sacred tree meter bronze sacred tree listed largest single bronze cultural relic china branch feature ring hollow pattern bud bronze bird stand resident ancient shu regarded sacred tree intermediary heaven earth god</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>{'neg': 0.0, 'neu': 0.852, 'pos': 0.148, 'compound': 0.6597}</t>
+        </is>
+      </c>
+      <c r="S15" t="n">
+        <v>0.6597</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.148</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.852</v>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>positive</t>
         </is>
       </c>
     </row>
